--- a/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
+++ b/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +547,12 @@
       <c r="AK1" s="1" t="n">
         <v>64</v>
       </c>
+      <c r="AL1" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -660,6 +666,12 @@
       <c r="AK2" t="n">
         <v>0</v>
       </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -675,103 +687,109 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.04</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0.04</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -884,6 +902,12 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -895,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="D5" t="n">
         <v>0.01</v>
@@ -904,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -913,13 +937,13 @@
         <v>0.02</v>
       </c>
       <c r="I5" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="J5" t="n">
         <v>0.02</v>
       </c>
       <c r="K5" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -943,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="T5" t="n">
         <v>0.02</v>
       </c>
       <c r="U5" t="n">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="V5" t="n">
         <v>0.01</v>
@@ -964,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="AD5" t="n">
         <v>0.06</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -998,6 +1022,12 @@
       </c>
       <c r="AK5" t="n">
         <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -1008,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.41</v>
+        <v>0.37</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -1080,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AD6" t="n">
         <v>0.01</v>
@@ -1110,6 +1140,12 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1160,7 +1196,7 @@
         <v>0.21</v>
       </c>
       <c r="P7" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1196,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1223,7 +1259,13 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AL7" t="n">
         <v>0.21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1255,7 +1297,7 @@
         <v>0.01</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1309,7 +1351,7 @@
         <v>0.01</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="AC8" t="n">
         <v>0.02</v>
@@ -1336,7 +1378,13 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="9">
@@ -1347,13 +1395,13 @@
         <v>0.01</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="D9" t="n">
         <v>0.02</v>
       </c>
       <c r="E9" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="F9" t="n">
         <v>0.58</v>
@@ -1422,7 +1470,7 @@
         <v>0.02</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="AC9" t="n">
         <v>0.48</v>
@@ -1449,6 +1497,12 @@
         <v>0</v>
       </c>
       <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1475,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1535,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="AC10" t="n">
         <v>0.01</v>
@@ -1562,6 +1616,12 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1573,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.58</v>
+        <v>0.52</v>
       </c>
       <c r="F11" t="n">
         <v>0.18</v>
@@ -1648,10 +1708,10 @@
         <v>0.13</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="AD11" t="n">
         <v>0.01</v>
@@ -1675,6 +1735,12 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1827,7 @@
         <v>0.01</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -1788,7 +1854,13 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AL12" t="n">
         <v>1</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="13">
@@ -1874,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -1901,6 +1973,12 @@
         <v>0</v>
       </c>
       <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1912,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1975,7 +2053,7 @@
         <v>0.02</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1987,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AC14" t="n">
         <v>0.06</v>
@@ -2014,6 +2092,12 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2100,7 +2184,7 @@
         <v>0.01</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2127,7 +2211,13 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AL15" t="n">
         <v>0.97</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.87</v>
       </c>
     </row>
     <row r="16">
@@ -2138,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2150,7 +2240,7 @@
         <v>0.02</v>
       </c>
       <c r="G16" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="H16" t="n">
         <v>0.47</v>
@@ -2213,7 +2303,7 @@
         <v>0.01</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -2240,7 +2330,13 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AL16" t="n">
         <v>0.63</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
@@ -2251,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -2353,6 +2449,12 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2466,6 +2568,12 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2477,13 +2585,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="F19" t="n">
         <v>0.58</v>
@@ -2552,10 +2660,10 @@
         <v>0.03</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="AD19" t="n">
         <v>0.01</v>
@@ -2579,6 +2687,12 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2665,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -2692,6 +2806,12 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2703,13 +2823,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.13</v>
+        <v>0.54</v>
       </c>
       <c r="F21" t="n">
         <v>0.02</v>
@@ -2806,6 +2926,12 @@
       </c>
       <c r="AK21" t="n">
         <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="22">
@@ -2816,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2891,7 +3017,7 @@
         <v>0.01</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="AC22" t="n">
         <v>0.02</v>
@@ -2918,7 +3044,13 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AL22" t="n">
         <v>1</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="23">
@@ -3033,6 +3165,12 @@
       <c r="AK23" t="n">
         <v>0</v>
       </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3075,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3117,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -3144,6 +3282,12 @@
         <v>0</v>
       </c>
       <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3230,7 +3374,7 @@
         <v>0.01</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -3257,7 +3401,13 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AL25" t="n">
         <v>1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.89</v>
       </c>
     </row>
     <row r="26">
@@ -3274,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -3370,6 +3520,12 @@
         <v>0</v>
       </c>
       <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3387,10 +3543,10 @@
         <v>0.14</v>
       </c>
       <c r="E27" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3456,7 +3612,7 @@
         <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AC27" t="n">
         <v>0.04</v>
@@ -3483,6 +3639,12 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM27" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3494,46 +3656,46 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="D28" t="n">
         <v>0.01</v>
       </c>
       <c r="E28" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="G28" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="H28" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="I28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O28" t="n">
         <v>0.16</v>
       </c>
-      <c r="J28" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0.34</v>
-      </c>
       <c r="P28" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3542,61 +3704,67 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="W28" t="n">
         <v>0.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="AB28" t="n">
         <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AF28" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AI28" t="n">
         <v>0.08</v>
       </c>
-      <c r="AG28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0.09</v>
-      </c>
       <c r="AJ28" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="29">
@@ -3607,16 +3775,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3631,7 +3799,7 @@
         <v>0.01</v>
       </c>
       <c r="K29" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3655,7 +3823,7 @@
         <v>0.01</v>
       </c>
       <c r="S29" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -3682,7 +3850,7 @@
         <v>0.04</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="AC29" t="n">
         <v>1</v>
@@ -3691,7 +3859,7 @@
         <v>0.02</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AF29" t="n">
         <v>0.01</v>
@@ -3700,7 +3868,7 @@
         <v>0.03</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AI29" t="n">
         <v>0</v>
@@ -3709,6 +3877,12 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3795,7 +3969,7 @@
         <v>0.02</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC30" t="n">
         <v>0.02</v>
@@ -3822,7 +3996,13 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="31">
@@ -3833,13 +4013,13 @@
         <v>0.01</v>
       </c>
       <c r="C31" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="F31" t="n">
         <v>0.18</v>
@@ -3908,10 +4088,10 @@
         <v>0.01</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="AD31" t="n">
         <v>0.01</v>
@@ -3935,6 +4115,12 @@
         <v>0.33</v>
       </c>
       <c r="AK31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM31" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4021,7 +4207,7 @@
         <v>0.45</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="AC32" t="n">
         <v>0.01</v>
@@ -4048,6 +4234,12 @@
         <v>0.37</v>
       </c>
       <c r="AK32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM32" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4065,7 +4257,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -4134,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AC33" t="n">
         <v>0.03</v>
@@ -4161,6 +4353,12 @@
         <v>0.01</v>
       </c>
       <c r="AK33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,7 +4376,7 @@
         <v>0.19</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -4250,7 +4448,7 @@
         <v>0.01</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AD34" t="n">
         <v>0.05</v>
@@ -4274,6 +4472,12 @@
         <v>0</v>
       </c>
       <c r="AK34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -4387,6 +4591,12 @@
         <v>0.14</v>
       </c>
       <c r="AK35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM35" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -4473,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.06</v>
+        <v>0.21</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -4500,6 +4710,12 @@
         <v>1</v>
       </c>
       <c r="AK36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4730,7 @@
         <v>0.02</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4523,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H37" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -4538,7 +4754,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4547,16 +4763,16 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="P37" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -4568,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -4577,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
@@ -4586,13 +4802,13 @@
         <v>0.01</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.35</v>
+        <v>0.16</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
       <c r="AE37" t="n">
         <v>0.02</v>
@@ -4604,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="AH37" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AI37" t="n">
         <v>0.06</v>
@@ -4613,6 +4829,250 @@
         <v>0</v>
       </c>
       <c r="AK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AM39" t="n">
         <v>1</v>
       </c>
     </row>

--- a/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
+++ b/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AN40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,15 +542,18 @@
         <v>61</v>
       </c>
       <c r="AJ1" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="AK1" s="1" t="n">
+      <c r="AL1" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="AL1" s="1" t="n">
+      <c r="AM1" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="AM1" s="1" t="n">
+      <c r="AN1" s="1" t="n">
         <v>67</v>
       </c>
     </row>
@@ -672,6 +675,9 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -699,7 +705,7 @@
         <v>0.01</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,12 +789,15 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
         <v>0.02</v>
       </c>
       <c r="AM3" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN3" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -899,15 +908,18 @@
         <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="AL4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AM4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1027,6 +1039,9 @@
         <v>0</v>
       </c>
       <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1148,6 +1163,9 @@
       <c r="AM6" t="n">
         <v>0</v>
       </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1259,12 +1277,15 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
         <v>0.2</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>0.21</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -1378,12 +1399,15 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>0.74</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -1395,7 +1419,7 @@
         <v>0.01</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="D9" t="n">
         <v>0.02</v>
@@ -1416,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K9" t="n">
         <v>0.1</v>
@@ -1503,6 +1527,9 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1532,7 +1559,7 @@
         <v>0.02</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -1616,12 +1643,15 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
         <v>0.01</v>
       </c>
       <c r="AM10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN10" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1743,6 +1773,9 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1854,12 +1887,15 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
         <v>0.92</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>1</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -1981,6 +2017,9 @@
       <c r="AM13" t="n">
         <v>0</v>
       </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2100,6 +2139,9 @@
       <c r="AM14" t="n">
         <v>0</v>
       </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2211,12 +2253,15 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>0.9</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>0.97</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>0.87</v>
       </c>
     </row>
@@ -2330,12 +2375,15 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
         <v>0.58</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>0.63</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>0.57</v>
       </c>
     </row>
@@ -2457,6 +2505,9 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2565,15 +2616,18 @@
         <v>0</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2695,6 +2749,9 @@
       <c r="AM19" t="n">
         <v>0</v>
       </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2806,12 +2863,15 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
         <v>0.01</v>
       </c>
       <c r="AM20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN20" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2931,6 +2991,9 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -3044,12 +3107,15 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL22" t="n">
         <v>0.92</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>1</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -3171,6 +3237,9 @@
       <c r="AM23" t="n">
         <v>0</v>
       </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3290,6 +3359,9 @@
       <c r="AM24" t="n">
         <v>0</v>
       </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3401,12 +3473,15 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
         <v>0.92</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>1</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -3528,6 +3603,9 @@
       <c r="AM26" t="n">
         <v>0</v>
       </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3639,12 +3717,15 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AL27" t="n">
         <v>0.01</v>
       </c>
       <c r="AM27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AN27" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3752,18 +3833,21 @@
         <v>0.01</v>
       </c>
       <c r="AI28" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
         <v>0.21</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>0.16</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>0.17</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AN28" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3885,6 +3969,9 @@
       <c r="AM29" t="n">
         <v>0</v>
       </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3996,12 +4083,15 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
         <v>0.26</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AM30" t="n">
         <v>0.28</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AN30" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -4109,18 +4199,21 @@
         <v>0.02</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
         <v>0.33</v>
       </c>
-      <c r="AK31" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AL31" t="n">
         <v>0.02</v>
       </c>
       <c r="AM31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN31" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4228,18 +4321,21 @@
         <v>0.1</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
         <v>0.37</v>
       </c>
-      <c r="AK32" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AL32" t="n">
         <v>0.02</v>
       </c>
       <c r="AM32" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AN32" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4350,15 +4446,18 @@
         <v>0</v>
       </c>
       <c r="AJ33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
       </c>
       <c r="AM33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4469,15 +4568,18 @@
         <v>0</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AK34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" t="n">
         <v>0.34</v>
       </c>
-      <c r="AL34" t="n">
-        <v>0</v>
-      </c>
       <c r="AM34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4564,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC35" t="n">
         <v>0</v>
@@ -4573,10 +4675,10 @@
         <v>0.02</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="AG35" t="n">
         <v>0</v>
@@ -4588,21 +4690,24 @@
         <v>1</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AL35" t="n">
         <v>0.06</v>
       </c>
       <c r="AM35" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AN35" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -4611,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4653,7 +4758,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -4683,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="AC36" t="n">
         <v>0</v>
@@ -4692,19 +4797,19 @@
         <v>0</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AH36" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
         <v>1</v>
@@ -4713,24 +4818,27 @@
         <v>0</v>
       </c>
       <c r="AL36" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AM36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -4739,22 +4847,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -4763,28 +4871,28 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -4793,37 +4901,37 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
         <v>0</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="AC37" t="n">
         <v>0</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="AG37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AI37" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="AJ37" t="n">
         <v>0</v>
@@ -4832,15 +4940,18 @@
         <v>1</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="AM37" t="n">
-        <v>0.83</v>
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -4849,7 +4960,7 @@
         <v>0.02</v>
       </c>
       <c r="D38" t="n">
-        <v>0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -4858,10 +4969,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4873,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -4882,16 +4993,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="P38" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4903,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -4912,7 +5023,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="Z38" t="n">
         <v>0</v>
@@ -4921,13 +5032,13 @@
         <v>0.01</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="AC38" t="n">
         <v>0</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
       <c r="AE38" t="n">
         <v>0.02</v>
@@ -4939,48 +5050,51 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="AI38" t="n">
         <v>0.06</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="AL38" t="n">
         <v>1</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E39" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="H39" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4992,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -5001,10 +5115,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0.87</v>
+        <v>0.97</v>
       </c>
       <c r="P39" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -5019,10 +5133,10 @@
         <v>0.01</v>
       </c>
       <c r="U39" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -5031,7 +5145,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>0</v>
@@ -5040,13 +5154,13 @@
         <v>0.01</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="AC39" t="n">
         <v>0</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="AE39" t="n">
         <v>0.02</v>
@@ -5067,12 +5181,137 @@
         <v>0</v>
       </c>
       <c r="AK39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="n">
         <v>0.83</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM40" t="n">
         <v>0.89</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN40" t="n">
         <v>1</v>
       </c>
     </row>

--- a/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
+++ b/admin/pages/User-Based/result/2_cosine_similarity_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN40"/>
+  <dimension ref="A1:AO41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,6 +556,9 @@
       <c r="AN1" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="AO1" s="1" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -678,6 +681,9 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -800,6 +806,9 @@
       <c r="AN3" t="n">
         <v>0.04</v>
       </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -827,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="J4" t="n">
         <v>0.01</v>
@@ -920,6 +929,9 @@
         <v>0.01</v>
       </c>
       <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,6 +1056,9 @@
       <c r="AN5" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1071,7 +1086,7 @@
         <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1164,6 +1179,9 @@
         <v>0</v>
       </c>
       <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1288,6 +1306,9 @@
       <c r="AN7" t="n">
         <v>0.19</v>
       </c>
+      <c r="AO7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1410,6 +1431,9 @@
       <c r="AN8" t="n">
         <v>0.67</v>
       </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1422,13 +1446,13 @@
         <v>0.04</v>
       </c>
       <c r="D9" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="E9" t="n">
         <v>0.23</v>
       </c>
       <c r="F9" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1443,7 +1467,7 @@
         <v>0.01</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1467,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="V9" t="n">
         <v>0.01</v>
@@ -1491,45 +1515,48 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="AB9" t="n">
         <v>0.11</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="AD9" t="n">
         <v>0.02</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AK9" t="n">
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AO9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1654,6 +1681,9 @@
       <c r="AN10" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1681,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="J11" t="n">
         <v>0.04</v>
@@ -1774,6 +1804,9 @@
         <v>0</v>
       </c>
       <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1898,6 +1931,9 @@
       <c r="AN12" t="n">
         <v>0.89</v>
       </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2020,6 +2056,9 @@
       <c r="AN13" t="n">
         <v>0</v>
       </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2142,6 +2181,9 @@
       <c r="AN14" t="n">
         <v>0</v>
       </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2264,6 +2306,9 @@
       <c r="AN15" t="n">
         <v>0.87</v>
       </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2386,6 +2431,9 @@
       <c r="AN16" t="n">
         <v>0.57</v>
       </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2508,6 +2556,9 @@
       <c r="AN17" t="n">
         <v>0</v>
       </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2630,6 +2681,9 @@
       <c r="AN18" t="n">
         <v>0</v>
       </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2657,7 +2711,7 @@
         <v>0.01</v>
       </c>
       <c r="I19" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2750,6 +2804,9 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2874,6 +2931,9 @@
       <c r="AN20" t="n">
         <v>0.01</v>
       </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2901,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="J21" t="n">
         <v>0.01</v>
@@ -2995,6 +3055,9 @@
       </c>
       <c r="AN21" t="n">
         <v>0.44</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3118,6 +3181,9 @@
       <c r="AN22" t="n">
         <v>0.89</v>
       </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -3240,6 +3306,9 @@
       <c r="AN23" t="n">
         <v>0</v>
       </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3362,6 +3431,9 @@
       <c r="AN24" t="n">
         <v>0</v>
       </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3484,6 +3556,9 @@
       <c r="AN25" t="n">
         <v>0.89</v>
       </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3606,6 +3681,9 @@
       <c r="AN26" t="n">
         <v>0</v>
       </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3633,7 +3711,7 @@
         <v>0.01</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02</v>
+        <v>0.29</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3727,6 +3805,9 @@
       </c>
       <c r="AN27" t="n">
         <v>0.01</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3850,6 +3931,9 @@
       <c r="AN28" t="n">
         <v>0.15</v>
       </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3877,7 +3961,7 @@
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="J29" t="n">
         <v>0.01</v>
@@ -3970,6 +4054,9 @@
         <v>0</v>
       </c>
       <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4094,6 +4181,9 @@
       <c r="AN30" t="n">
         <v>0.26</v>
       </c>
+      <c r="AO30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -4121,7 +4211,7 @@
         <v>0.02</v>
       </c>
       <c r="I31" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="J31" t="n">
         <v>0.16</v>
@@ -4215,6 +4305,9 @@
       </c>
       <c r="AN31" t="n">
         <v>0.02</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4243,7 +4336,7 @@
         <v>0.01</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J32" t="n">
         <v>0.01</v>
@@ -4337,6 +4430,9 @@
       </c>
       <c r="AN32" t="n">
         <v>0.02</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4460,6 +4556,9 @@
       <c r="AN33" t="n">
         <v>0</v>
       </c>
+      <c r="AO33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4487,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="J34" t="n">
         <v>0.23</v>
@@ -4580,6 +4679,9 @@
         <v>0</v>
       </c>
       <c r="AN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4609,7 +4711,7 @@
         <v>0.05</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -4703,6 +4805,9 @@
       </c>
       <c r="AN35" t="n">
         <v>0.06</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4731,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -4824,6 +4929,9 @@
         <v>0</v>
       </c>
       <c r="AN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4948,6 +5056,9 @@
       <c r="AN37" t="n">
         <v>0</v>
       </c>
+      <c r="AO37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4975,7 +5086,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J38" t="n">
         <v>0.01</v>
@@ -5069,6 +5180,9 @@
       </c>
       <c r="AN38" t="n">
         <v>0.83</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -5192,6 +5306,9 @@
       <c r="AN39" t="n">
         <v>0.89</v>
       </c>
+      <c r="AO39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -5219,7 +5336,7 @@
         <v>0.67</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J40" t="n">
         <v>0.01</v>
@@ -5312,6 +5429,134 @@
         <v>0.89</v>
       </c>
       <c r="AN40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO41" t="n">
         <v>1</v>
       </c>
     </row>
